--- a/LearnSelenium/Files/employees.xlsx
+++ b/LearnSelenium/Files/employees.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19368BBF-6AB2-4667-8507-227C43B430E2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="one" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,6 +30,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Mootori</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Kripal</t>
+  </si>
+  <si>
+    <t>Dhant</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
@@ -41,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +428,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>